--- a/raw_data/Stress_Data.xlsx
+++ b/raw_data/Stress_Data.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3edad19b159922f5/_Documents/2021W/Bamfield/ADA_DS/DS_Shared/Cuke_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan Farr\Github\DS_cucumber\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2079" documentId="8_{8DC1B906-425C-BD40-8C1D-2D731206E928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71BD1E3E-295A-4555-825A-DCBABBF8E835}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6B641A-AFFB-4E2A-ADC4-4DA2FCB52D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18900" windowHeight="22400" xr2:uid="{D0576FAC-21A8-0E41-B163-2D57963371CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D0576FAC-21A8-0E41-B163-2D57963371CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="behaviour_data" sheetId="1" r:id="rId1"/>
-    <sheet name="metadata" sheetId="2" r:id="rId2"/>
+    <sheet name="metadata" sheetId="2" r:id="rId1"/>
+    <sheet name="behaviour_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">behaviour_data!$A$1:$L$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">behaviour_data!$A$1:$L$393</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -148,13 +148,79 @@
     <t>Activity_score</t>
   </si>
   <si>
-    <t>measured at grid intersections; 1min intervals for 15min</t>
+    <t xml:space="preserve">Authors: </t>
   </si>
   <si>
-    <t>1-3 score where 1 = completley relaxed, 2 = moderatley stiff, 3 = horizontally ridgid or more</t>
+    <t>Declan Taylor (declanta@student.ubc.ca)</t>
   </si>
   <si>
-    <t>1-3 score where 1 = belly fat, 2 = untensed bicep, 3 = curled bicep with clenched fist.</t>
+    <t>Jonathan Farr (jfarr@ualberta.ca)</t>
+  </si>
+  <si>
+    <t>Bamfield Marine Science Center, 100 Pachena Rd, Bamfield, BC, V05 1B0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of Study: No evidence for heat-triggered wasting in giant California sea cucumbers (Parastichopus californicus)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methods used to collect data: </t>
+  </si>
+  <si>
+    <t>Full methods available in text</t>
+  </si>
+  <si>
+    <t>Experimental units: measurements taken for individual cucumbers (bucket # a or b) repeatedly throughout the experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units of measurement: </t>
+  </si>
+  <si>
+    <t>Description of Data in columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abbreviations used in data file </t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Description of data in rows</t>
+  </si>
+  <si>
+    <t>Date and time of collection</t>
+  </si>
+  <si>
+    <t>2021-11-09 to 2021-11-20</t>
+  </si>
+  <si>
+    <t>various collection times</t>
+  </si>
+  <si>
+    <t>Number lesions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of minor lesions observed in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-2 score where 0 = soft, 1 = standard, 2 = stiff </t>
+  </si>
+  <si>
+    <t>number of movements, measured at grid intersections; 1min intervals for 15min</t>
+  </si>
+  <si>
+    <t>number of major lesions occurring on sea cucumber bodywall observed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each row represents a unique behavioural measurement taken from a specific sea cucumber at a specific time </t>
+  </si>
+  <si>
+    <t>Metadata for Behaviour Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each day we recorded behavioural phenotypes with a 15-minute movement assay (activity), a test of structural stiffness based on ability to remain stiff on a platform (droop), and the ability to stiffen when touched (squeeze). </t>
+  </si>
+  <si>
+    <t>We also counted the number of minor and bodywall lesions on each cucumber</t>
   </si>
 </sst>
 </file>
@@ -164,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,13 +244,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -208,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -219,6 +310,12 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,22 +629,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF0FE26-B3B0-0F49-B6B9-4ECD34DB7ACF}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFB921B-C5DA-4643-BBE9-F92AFDD02BDA}">
   <dimension ref="A1:L449"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="F432" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="M449" sqref="M449"/>
-      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -623,7 +931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -661,7 +969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -699,7 +1007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -737,7 +1045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -775,7 +1083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -813,7 +1121,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -851,7 +1159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -889,7 +1197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -927,7 +1235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -965,7 +1273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -1041,7 +1349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1117,7 +1425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -1155,7 +1463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -1269,7 +1577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1307,7 +1615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1421,7 +1729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -1459,7 +1767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -1497,7 +1805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1573,7 +1881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -1611,7 +1919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -1649,7 +1957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1687,7 +1995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -1725,7 +2033,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1763,7 +2071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +2109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -1839,7 +2147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -1877,7 +2185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +2223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +2261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -1991,7 +2299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
@@ -2029,7 +2337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
@@ -2067,7 +2375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.75">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
@@ -2105,7 +2413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -2143,7 +2451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.75">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2181,7 +2489,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.75">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2219,7 +2527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2257,7 +2565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.75">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2295,7 +2603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.75">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
@@ -2333,7 +2641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.75">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -2371,7 +2679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.75">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -2409,7 +2717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.75">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -2447,7 +2755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.75">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -2485,7 +2793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.75">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
@@ -2523,7 +2831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
@@ -2561,7 +2869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.75">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -2599,7 +2907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.75">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -2637,7 +2945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.75">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -2675,7 +2983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.75">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
@@ -2713,7 +3021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.75">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -2751,7 +3059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.75">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>21</v>
       </c>
@@ -2789,7 +3097,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.75">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -2827,7 +3135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.75">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
@@ -2865,7 +3173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.75">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +3211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>21</v>
       </c>
@@ -2941,7 +3249,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.75">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
@@ -2979,7 +3287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.75">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>21</v>
       </c>
@@ -3017,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -3055,7 +3363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.75">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>21</v>
       </c>
@@ -3093,7 +3401,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.75">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
@@ -3131,7 +3439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.75">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>21</v>
       </c>
@@ -3169,7 +3477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.75">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>21</v>
       </c>
@@ -3207,7 +3515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.75">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>21</v>
       </c>
@@ -3245,7 +3553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.75">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>21</v>
       </c>
@@ -3283,7 +3591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.75">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
@@ -3321,7 +3629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
@@ -3359,7 +3667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -3397,7 +3705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.75">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
@@ -3435,7 +3743,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.75">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
@@ -3473,7 +3781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.75">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
@@ -3511,7 +3819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.75">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>21</v>
       </c>
@@ -3549,7 +3857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.75">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>21</v>
       </c>
@@ -3587,7 +3895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.75">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
@@ -3625,7 +3933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.75">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>21</v>
       </c>
@@ -3663,7 +3971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.75">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
@@ -3701,7 +4009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.75">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>21</v>
       </c>
@@ -3739,7 +4047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.75">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>21</v>
       </c>
@@ -3777,7 +4085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.75">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>21</v>
       </c>
@@ -3815,7 +4123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.75">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>21</v>
       </c>
@@ -3853,7 +4161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.75">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>21</v>
       </c>
@@ -3891,7 +4199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.75">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>21</v>
       </c>
@@ -3929,7 +4237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.75">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -3967,7 +4275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.75">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>21</v>
       </c>
@@ -4005,7 +4313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.75">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>21</v>
       </c>
@@ -4043,7 +4351,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.75">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>21</v>
       </c>
@@ -4081,7 +4389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.75">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>21</v>
       </c>
@@ -4119,7 +4427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.75">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>21</v>
       </c>
@@ -4157,7 +4465,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.75">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>21</v>
       </c>
@@ -4195,7 +4503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.75">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
@@ -4233,7 +4541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.75">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>21</v>
       </c>
@@ -4271,7 +4579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.75">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +4617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.75">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>21</v>
       </c>
@@ -4347,7 +4655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.75">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>21</v>
       </c>
@@ -4385,7 +4693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.75">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>21</v>
       </c>
@@ -4423,7 +4731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.75">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>21</v>
       </c>
@@ -4461,7 +4769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.75">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>21</v>
       </c>
@@ -4499,7 +4807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.75">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
@@ -4537,7 +4845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.75">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>21</v>
       </c>
@@ -4575,7 +4883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.75">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>21</v>
       </c>
@@ -4613,7 +4921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.75">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>21</v>
       </c>
@@ -4651,7 +4959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.75">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>21</v>
       </c>
@@ -4689,7 +4997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.75">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>21</v>
       </c>
@@ -4727,7 +5035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.75">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>21</v>
       </c>
@@ -4765,7 +5073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.75">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>21</v>
       </c>
@@ -4803,7 +5111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.75">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>21</v>
       </c>
@@ -4841,7 +5149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.75">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>22</v>
       </c>
@@ -4879,7 +5187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.75">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>22</v>
       </c>
@@ -4917,7 +5225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.75">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>22</v>
       </c>
@@ -4955,7 +5263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.75">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>22</v>
       </c>
@@ -4993,7 +5301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.75">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>22</v>
       </c>
@@ -5031,7 +5339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.75">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>22</v>
       </c>
@@ -5069,7 +5377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.75">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>22</v>
       </c>
@@ -5107,7 +5415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.75">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>22</v>
       </c>
@@ -5145,7 +5453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.75">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>22</v>
       </c>
@@ -5183,7 +5491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.75">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>22</v>
       </c>
@@ -5221,7 +5529,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.75">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>22</v>
       </c>
@@ -5259,7 +5567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.75">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>22</v>
       </c>
@@ -5297,7 +5605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.75">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>22</v>
       </c>
@@ -5335,7 +5643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.75">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>22</v>
       </c>
@@ -5373,7 +5681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.75">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>22</v>
       </c>
@@ -5411,7 +5719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.75">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>22</v>
       </c>
@@ -5449,7 +5757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.75">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>22</v>
       </c>
@@ -5487,7 +5795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.75">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>22</v>
       </c>
@@ -5525,7 +5833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.75">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>22</v>
       </c>
@@ -5563,7 +5871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.75">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>22</v>
       </c>
@@ -5601,7 +5909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.75">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>22</v>
       </c>
@@ -5639,7 +5947,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.75">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>22</v>
       </c>
@@ -5677,7 +5985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.75">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>22</v>
       </c>
@@ -5715,7 +6023,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.75">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>22</v>
       </c>
@@ -5753,7 +6061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.75">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>22</v>
       </c>
@@ -5791,7 +6099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.75">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>22</v>
       </c>
@@ -5829,7 +6137,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.75">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>22</v>
       </c>
@@ -5867,7 +6175,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.75">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>22</v>
       </c>
@@ -5905,7 +6213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.75">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>22</v>
       </c>
@@ -5943,7 +6251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.75">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>22</v>
       </c>
@@ -5981,7 +6289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.75">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>22</v>
       </c>
@@ -6019,7 +6327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.75">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>22</v>
       </c>
@@ -6057,7 +6365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.75">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>22</v>
       </c>
@@ -6095,7 +6403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.75">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>22</v>
       </c>
@@ -6133,7 +6441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.75">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>22</v>
       </c>
@@ -6171,7 +6479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.75">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>22</v>
       </c>
@@ -6209,7 +6517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.75">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>22</v>
       </c>
@@ -6247,7 +6555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.75">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>22</v>
       </c>
@@ -6285,7 +6593,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.75">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>22</v>
       </c>
@@ -6323,7 +6631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.75">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>22</v>
       </c>
@@ -6361,7 +6669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.75">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>22</v>
       </c>
@@ -6399,7 +6707,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.75">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>22</v>
       </c>
@@ -6437,7 +6745,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.75">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>22</v>
       </c>
@@ -6475,7 +6783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.75">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>22</v>
       </c>
@@ -6513,7 +6821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.75">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>22</v>
       </c>
@@ -6551,7 +6859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.75">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>22</v>
       </c>
@@ -6589,7 +6897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.75">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>22</v>
       </c>
@@ -6627,7 +6935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.75">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>22</v>
       </c>
@@ -6665,7 +6973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.75">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>22</v>
       </c>
@@ -6703,7 +7011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.75">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>22</v>
       </c>
@@ -6741,7 +7049,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.75">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>22</v>
       </c>
@@ -6779,7 +7087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.75">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>22</v>
       </c>
@@ -6817,7 +7125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.75">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>22</v>
       </c>
@@ -6855,7 +7163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.75">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>22</v>
       </c>
@@ -6893,7 +7201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.75">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>22</v>
       </c>
@@ -6931,7 +7239,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.75">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>22</v>
       </c>
@@ -6969,7 +7277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.75">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>23</v>
       </c>
@@ -7007,7 +7315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.75">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>23</v>
       </c>
@@ -7045,7 +7353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.75">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>23</v>
       </c>
@@ -7083,7 +7391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.75">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>23</v>
       </c>
@@ -7121,7 +7429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.75">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>23</v>
       </c>
@@ -7159,7 +7467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.75">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>23</v>
       </c>
@@ -7197,7 +7505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.75">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>23</v>
       </c>
@@ -7235,7 +7543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>23</v>
       </c>
@@ -7273,7 +7581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>23</v>
       </c>
@@ -7311,7 +7619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.75">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>23</v>
       </c>
@@ -7349,7 +7657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.75">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>23</v>
       </c>
@@ -7387,7 +7695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.75">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>23</v>
       </c>
@@ -7425,7 +7733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="15.75">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>23</v>
       </c>
@@ -7463,7 +7771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="15.75">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>23</v>
       </c>
@@ -7501,7 +7809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="15.75">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>23</v>
       </c>
@@ -7539,7 +7847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="15.75">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>23</v>
       </c>
@@ -7577,7 +7885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="15.75">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>23</v>
       </c>
@@ -7615,7 +7923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="15.75">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>23</v>
       </c>
@@ -7653,7 +7961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="15.75">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>23</v>
       </c>
@@ -7691,7 +7999,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="15.75">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>23</v>
       </c>
@@ -7729,7 +8037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="15.75">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>23</v>
       </c>
@@ -7767,7 +8075,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="15.75">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>23</v>
       </c>
@@ -7805,7 +8113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="15.75">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>23</v>
       </c>
@@ -7843,7 +8151,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="15.75">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>23</v>
       </c>
@@ -7881,7 +8189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="15.75">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>23</v>
       </c>
@@ -7919,7 +8227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="15.75">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>23</v>
       </c>
@@ -7957,7 +8265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="15.75">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>23</v>
       </c>
@@ -7995,7 +8303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="15.75">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>23</v>
       </c>
@@ -8033,7 +8341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="15.75">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>23</v>
       </c>
@@ -8071,7 +8379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="15.75">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>23</v>
       </c>
@@ -8109,7 +8417,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="15.75">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>23</v>
       </c>
@@ -8147,7 +8455,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="15.75">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>23</v>
       </c>
@@ -8185,7 +8493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="15.75">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>23</v>
       </c>
@@ -8223,7 +8531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="15.75">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>23</v>
       </c>
@@ -8261,7 +8569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="15.75">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>23</v>
       </c>
@@ -8299,7 +8607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="15.75">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>23</v>
       </c>
@@ -8337,7 +8645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="15.75">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>23</v>
       </c>
@@ -8375,7 +8683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="15.75">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>23</v>
       </c>
@@ -8413,7 +8721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="15.75">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>23</v>
       </c>
@@ -8451,7 +8759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="15.75">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>23</v>
       </c>
@@ -8489,7 +8797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="15.75">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>23</v>
       </c>
@@ -8527,7 +8835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="15.75">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>23</v>
       </c>
@@ -8565,7 +8873,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="15.75">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>23</v>
       </c>
@@ -8603,7 +8911,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15.75">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>23</v>
       </c>
@@ -8641,7 +8949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15.75">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>23</v>
       </c>
@@ -8679,7 +8987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15.75">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>23</v>
       </c>
@@ -8717,7 +9025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15.75">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>23</v>
       </c>
@@ -8755,7 +9063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15.75">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>23</v>
       </c>
@@ -8793,7 +9101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15.75">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>23</v>
       </c>
@@ -8831,7 +9139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.75">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>23</v>
       </c>
@@ -8869,7 +9177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="15.75">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>23</v>
       </c>
@@ -8907,7 +9215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15.75">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>23</v>
       </c>
@@ -8945,7 +9253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15.75">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>23</v>
       </c>
@@ -8983,7 +9291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15.75">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>23</v>
       </c>
@@ -9021,7 +9329,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15.75">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>23</v>
       </c>
@@ -9059,7 +9367,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="15.75">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>23</v>
       </c>
@@ -9097,7 +9405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="15.75">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>24</v>
       </c>
@@ -9135,7 +9443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="15.75">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>24</v>
       </c>
@@ -9173,7 +9481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="15.75">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>24</v>
       </c>
@@ -9211,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="15.75">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>24</v>
       </c>
@@ -9249,7 +9557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="15.75">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>24</v>
       </c>
@@ -9287,7 +9595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="15.75">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>24</v>
       </c>
@@ -9325,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="15.75">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>24</v>
       </c>
@@ -9363,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="15.75">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>24</v>
       </c>
@@ -9401,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="15.75">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>24</v>
       </c>
@@ -9439,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="15.75">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>24</v>
       </c>
@@ -9477,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="15.75">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>24</v>
       </c>
@@ -9515,7 +9823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="15.75">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>24</v>
       </c>
@@ -9553,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:12" ht="15.75">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>24</v>
       </c>
@@ -9591,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="15.75">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>24</v>
       </c>
@@ -9629,7 +9937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="15.75">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>24</v>
       </c>
@@ -9667,7 +9975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="15.75">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>24</v>
       </c>
@@ -9705,7 +10013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="15.75">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>24</v>
       </c>
@@ -9743,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="15.75">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>24</v>
       </c>
@@ -9781,7 +10089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="15.75">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>24</v>
       </c>
@@ -9819,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="15.75">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>24</v>
       </c>
@@ -9857,7 +10165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="15.75">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>24</v>
       </c>
@@ -9895,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" ht="15.75">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>24</v>
       </c>
@@ -9933,7 +10241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" ht="15.75">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>24</v>
       </c>
@@ -9971,7 +10279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="15.75">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>24</v>
       </c>
@@ -10009,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="15.75">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>24</v>
       </c>
@@ -10047,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="15.75">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>24</v>
       </c>
@@ -10085,7 +10393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="15.75">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>24</v>
       </c>
@@ -10123,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="15.75">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>24</v>
       </c>
@@ -10161,7 +10469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="15.75">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>24</v>
       </c>
@@ -10199,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="15.75">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>24</v>
       </c>
@@ -10237,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="15.75">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>24</v>
       </c>
@@ -10275,7 +10583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="15.75">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>24</v>
       </c>
@@ -10313,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="15.75">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258" s="3" t="s">
         <v>24</v>
       </c>
@@ -10351,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="15.75">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="3" t="s">
         <v>24</v>
       </c>
@@ -10389,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="15.75">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
         <v>24</v>
       </c>
@@ -10427,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="15.75">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>24</v>
       </c>
@@ -10465,7 +10773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="15.75">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
         <v>24</v>
       </c>
@@ -10503,7 +10811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="15.75">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
         <v>24</v>
       </c>
@@ -10541,7 +10849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="15.75">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>24</v>
       </c>
@@ -10579,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="15.75">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>24</v>
       </c>
@@ -10617,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="15.75">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="3" t="s">
         <v>24</v>
       </c>
@@ -10655,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="15.75">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A267" s="3" t="s">
         <v>24</v>
       </c>
@@ -10693,7 +11001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="15.75">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="3" t="s">
         <v>24</v>
       </c>
@@ -10731,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="15.75">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
         <v>24</v>
       </c>
@@ -10769,7 +11077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="15.75">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="3" t="s">
         <v>24</v>
       </c>
@@ -10807,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="15.75">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="3" t="s">
         <v>24</v>
       </c>
@@ -10845,7 +11153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="15.75">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A272" s="3" t="s">
         <v>24</v>
       </c>
@@ -10883,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="15.75">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A273" s="3" t="s">
         <v>24</v>
       </c>
@@ -10921,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="15.75">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
         <v>24</v>
       </c>
@@ -10959,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="15.75">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="3" t="s">
         <v>24</v>
       </c>
@@ -10997,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="15.75">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="3" t="s">
         <v>24</v>
       </c>
@@ -11035,7 +11343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="15.75">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="3" t="s">
         <v>24</v>
       </c>
@@ -11073,7 +11381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="15.75">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="3" t="s">
         <v>24</v>
       </c>
@@ -11111,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="15.75">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A279" s="3" t="s">
         <v>24</v>
       </c>
@@ -11149,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="15.75">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>24</v>
       </c>
@@ -11187,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="15.75">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>24</v>
       </c>
@@ -11225,7 +11533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="15.75">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>25</v>
       </c>
@@ -11263,7 +11571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="15.75">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="3" t="s">
         <v>25</v>
       </c>
@@ -11301,7 +11609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="15.75">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="3" t="s">
         <v>25</v>
       </c>
@@ -11339,7 +11647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="15.75">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A285" s="3" t="s">
         <v>25</v>
       </c>
@@ -11377,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="15.75">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="3" t="s">
         <v>25</v>
       </c>
@@ -11415,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="15.75">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="3" t="s">
         <v>25</v>
       </c>
@@ -11453,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="15.75">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
         <v>25</v>
       </c>
@@ -11491,7 +11799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="15.75">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
         <v>25</v>
       </c>
@@ -11529,7 +11837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="15.75">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
         <v>25</v>
       </c>
@@ -11567,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="15.75">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
         <v>25</v>
       </c>
@@ -11605,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="15.75">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>25</v>
       </c>
@@ -11643,7 +11951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="15.75">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>25</v>
       </c>
@@ -11681,7 +11989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="15.75">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>25</v>
       </c>
@@ -11719,7 +12027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15.75">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>25</v>
       </c>
@@ -11757,7 +12065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15.75">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>25</v>
       </c>
@@ -11795,7 +12103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15.75">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>25</v>
       </c>
@@ -11833,7 +12141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="15.75">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>25</v>
       </c>
@@ -11871,7 +12179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15.75">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>25</v>
       </c>
@@ -11909,7 +12217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15.75">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>25</v>
       </c>
@@ -11947,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15.75">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>25</v>
       </c>
@@ -11985,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" ht="15.75">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>25</v>
       </c>
@@ -12023,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" ht="15.75">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>25</v>
       </c>
@@ -12061,7 +12369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15.75">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>25</v>
       </c>
@@ -12099,7 +12407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15.75">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>25</v>
       </c>
@@ -12137,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15.75">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>25</v>
       </c>
@@ -12175,7 +12483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="15.75">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="3" t="s">
         <v>25</v>
       </c>
@@ -12213,7 +12521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="15.75">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="3" t="s">
         <v>25</v>
       </c>
@@ -12251,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15.75">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309" s="3" t="s">
         <v>25</v>
       </c>
@@ -12289,7 +12597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15.75">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="3" t="s">
         <v>25</v>
       </c>
@@ -12327,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="15.75">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="3" t="s">
         <v>25</v>
       </c>
@@ -12365,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15.75">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="3" t="s">
         <v>25</v>
       </c>
@@ -12403,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15.75">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="3" t="s">
         <v>25</v>
       </c>
@@ -12441,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15.75">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="3" t="s">
         <v>25</v>
       </c>
@@ -12479,7 +12787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="15.75">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="3" t="s">
         <v>25</v>
       </c>
@@ -12517,7 +12825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="15.75">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="3" t="s">
         <v>25</v>
       </c>
@@ -12555,7 +12863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15.75">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="3" t="s">
         <v>25</v>
       </c>
@@ -12593,7 +12901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15.75">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
         <v>25</v>
       </c>
@@ -12631,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15.75">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
         <v>25</v>
       </c>
@@ -12669,7 +12977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15.75">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
         <v>25</v>
       </c>
@@ -12707,7 +13015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.75">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
         <v>25</v>
       </c>
@@ -12745,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.75">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322" s="3" t="s">
         <v>25</v>
       </c>
@@ -12783,7 +13091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="15.75">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" s="3" t="s">
         <v>25</v>
       </c>
@@ -12821,7 +13129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="15.75">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" s="3" t="s">
         <v>25</v>
       </c>
@@ -12859,7 +13167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="15.75">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" s="3" t="s">
         <v>25</v>
       </c>
@@ -12897,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="15.75">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" s="3" t="s">
         <v>25</v>
       </c>
@@ -12935,7 +13243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="15.75">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327" s="3" t="s">
         <v>25</v>
       </c>
@@ -12973,7 +13281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="15.75">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" s="3" t="s">
         <v>25</v>
       </c>
@@ -13011,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="15.75">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" s="3" t="s">
         <v>25</v>
       </c>
@@ -13049,7 +13357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="15.75">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" s="3" t="s">
         <v>25</v>
       </c>
@@ -13087,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15.75">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331" s="3" t="s">
         <v>25</v>
       </c>
@@ -13125,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15.75">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" s="3" t="s">
         <v>25</v>
       </c>
@@ -13163,7 +13471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="15.75">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" s="3" t="s">
         <v>25</v>
       </c>
@@ -13201,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.75">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" s="3" t="s">
         <v>25</v>
       </c>
@@ -13239,7 +13547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15.75">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" s="3" t="s">
         <v>25</v>
       </c>
@@ -13277,7 +13585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15.75">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" s="3" t="s">
         <v>25</v>
       </c>
@@ -13315,7 +13623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="15.75">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" s="3" t="s">
         <v>25</v>
       </c>
@@ -13353,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="15.75">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>26</v>
       </c>
@@ -13391,7 +13699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="15.75">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" s="3" t="s">
         <v>26</v>
       </c>
@@ -13429,7 +13737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="15.75">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" s="3" t="s">
         <v>26</v>
       </c>
@@ -13467,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="15.75">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" s="3" t="s">
         <v>26</v>
       </c>
@@ -13505,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="15.75">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A342" s="3" t="s">
         <v>26</v>
       </c>
@@ -13543,7 +13851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="15.75">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
         <v>26</v>
       </c>
@@ -13581,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="15.75">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" s="3" t="s">
         <v>26</v>
       </c>
@@ -13619,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15.75">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" s="3" t="s">
         <v>26</v>
       </c>
@@ -13657,7 +13965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="15.75">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A346" s="3" t="s">
         <v>26</v>
       </c>
@@ -13695,7 +14003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="15.75">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A347" s="3" t="s">
         <v>26</v>
       </c>
@@ -13733,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="15.75">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A348" s="3" t="s">
         <v>26</v>
       </c>
@@ -13771,7 +14079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="15.75">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349" s="3" t="s">
         <v>26</v>
       </c>
@@ -13809,7 +14117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="15.75">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350" s="3" t="s">
         <v>26</v>
       </c>
@@ -13847,7 +14155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="15.75">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" s="3" t="s">
         <v>26</v>
       </c>
@@ -13885,7 +14193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15.75">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" s="3" t="s">
         <v>26</v>
       </c>
@@ -13923,7 +14231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15.75">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" s="3" t="s">
         <v>26</v>
       </c>
@@ -13961,7 +14269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15.75">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" s="3" t="s">
         <v>26</v>
       </c>
@@ -13999,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="15.75">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" s="3" t="s">
         <v>26</v>
       </c>
@@ -14037,7 +14345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="15.75">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" s="3" t="s">
         <v>26</v>
       </c>
@@ -14075,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.75">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" s="3" t="s">
         <v>26</v>
       </c>
@@ -14113,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15.75">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" s="3" t="s">
         <v>26</v>
       </c>
@@ -14148,7 +14456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15.75">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
         <v>26</v>
       </c>
@@ -14186,7 +14494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:12" ht="15.75">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" s="3" t="s">
         <v>26</v>
       </c>
@@ -14224,7 +14532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="15.75">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="3" t="s">
         <v>26</v>
       </c>
@@ -14262,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="15.75">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" s="3" t="s">
         <v>26</v>
       </c>
@@ -14300,7 +14608,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="15.75">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" s="3" t="s">
         <v>26</v>
       </c>
@@ -14338,7 +14646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="15.75">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" s="3" t="s">
         <v>26</v>
       </c>
@@ -14376,7 +14684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="15.75">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" s="3" t="s">
         <v>26</v>
       </c>
@@ -14414,7 +14722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="15.75">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" s="3" t="s">
         <v>26</v>
       </c>
@@ -14452,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="15.75">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367" s="3" t="s">
         <v>26</v>
       </c>
@@ -14490,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="15.75">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A368" s="3" t="s">
         <v>26</v>
       </c>
@@ -14528,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:12" ht="15.75">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>26</v>
       </c>
@@ -14566,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="15.75">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>26</v>
       </c>
@@ -14604,7 +14912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="15.75">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>26</v>
       </c>
@@ -14642,7 +14950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="15.75">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>26</v>
       </c>
@@ -14680,7 +14988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="15.75">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>26</v>
       </c>
@@ -14718,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:12" ht="15.75">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>26</v>
       </c>
@@ -14756,7 +15064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="15.75">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>26</v>
       </c>
@@ -14794,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15.75">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>26</v>
       </c>
@@ -14832,7 +15140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="15.75">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>26</v>
       </c>
@@ -14870,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="15.75">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>26</v>
       </c>
@@ -14908,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="15.75">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>26</v>
       </c>
@@ -14946,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="15.75">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>26</v>
       </c>
@@ -14984,7 +15292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="15.75">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>26</v>
       </c>
@@ -15022,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="15.75">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>26</v>
       </c>
@@ -15060,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="15.75">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>26</v>
       </c>
@@ -15098,7 +15406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:12" ht="15.75">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>26</v>
       </c>
@@ -15136,7 +15444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15.75">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385" s="3" t="s">
         <v>26</v>
       </c>
@@ -15174,7 +15482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15.75">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" s="3" t="s">
         <v>26</v>
       </c>
@@ -15212,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15.75">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387" s="3" t="s">
         <v>26</v>
       </c>
@@ -15250,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15.75">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" s="3" t="s">
         <v>26</v>
       </c>
@@ -15288,7 +15596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15.75">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389" s="3" t="s">
         <v>26</v>
       </c>
@@ -15326,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:12" ht="15.75">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" s="3" t="s">
         <v>26</v>
       </c>
@@ -15364,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:12" ht="15.75">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" s="3" t="s">
         <v>26</v>
       </c>
@@ -15402,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:12" ht="15.75">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="3" t="s">
         <v>26</v>
       </c>
@@ -15440,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12" ht="15.75">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" s="3" t="s">
         <v>26</v>
       </c>
@@ -15478,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:12" ht="15.75">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>27</v>
       </c>
@@ -15516,7 +15824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>27</v>
       </c>
@@ -15554,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>27</v>
       </c>
@@ -15592,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>27</v>
       </c>
@@ -15630,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>27</v>
       </c>
@@ -15668,7 +15976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>27</v>
       </c>
@@ -15706,7 +16014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>27</v>
       </c>
@@ -15744,7 +16052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>27</v>
       </c>
@@ -15782,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>27</v>
       </c>
@@ -15820,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>27</v>
       </c>
@@ -15858,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>27</v>
       </c>
@@ -15896,7 +16204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>27</v>
       </c>
@@ -15934,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>27</v>
       </c>
@@ -15972,7 +16280,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>27</v>
       </c>
@@ -16010,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>27</v>
       </c>
@@ -16048,7 +16356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>27</v>
       </c>
@@ -16086,7 +16394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>27</v>
       </c>
@@ -16124,7 +16432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>27</v>
       </c>
@@ -16162,7 +16470,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>27</v>
       </c>
@@ -16200,7 +16508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>27</v>
       </c>
@@ -16238,7 +16546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>27</v>
       </c>
@@ -16276,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>27</v>
       </c>
@@ -16314,7 +16622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>27</v>
       </c>
@@ -16352,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>27</v>
       </c>
@@ -16390,7 +16698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>27</v>
       </c>
@@ -16428,7 +16736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>27</v>
       </c>
@@ -16466,7 +16774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>27</v>
       </c>
@@ -16504,7 +16812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>27</v>
       </c>
@@ -16542,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>27</v>
       </c>
@@ -16580,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>27</v>
       </c>
@@ -16618,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>27</v>
       </c>
@@ -16656,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>27</v>
       </c>
@@ -16694,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>27</v>
       </c>
@@ -16732,7 +17040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>27</v>
       </c>
@@ -16770,7 +17078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>27</v>
       </c>
@@ -16808,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>27</v>
       </c>
@@ -16846,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>27</v>
       </c>
@@ -16884,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>27</v>
       </c>
@@ -16922,7 +17230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>27</v>
       </c>
@@ -16960,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>27</v>
       </c>
@@ -16998,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>27</v>
       </c>
@@ -17036,7 +17344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>27</v>
       </c>
@@ -17074,7 +17382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>27</v>
       </c>
@@ -17112,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>27</v>
       </c>
@@ -17150,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>27</v>
       </c>
@@ -17188,7 +17496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>27</v>
       </c>
@@ -17226,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>27</v>
       </c>
@@ -17264,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>27</v>
       </c>
@@ -17302,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>27</v>
       </c>
@@ -17340,7 +17648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>27</v>
       </c>
@@ -17378,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>27</v>
       </c>
@@ -17416,7 +17724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>27</v>
       </c>
@@ -17454,7 +17762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>27</v>
       </c>
@@ -17492,7 +17800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>27</v>
       </c>
@@ -17530,7 +17838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>27</v>
       </c>
@@ -17568,7 +17876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>27</v>
       </c>
@@ -17611,91 +17919,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF0FE26-B3B0-0F49-B6B9-4ECD34DB7ACF}">
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>